--- a/database/infodados.xlsx
+++ b/database/infodados.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isaque\Documents\API-Porygon\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0108F7E4-4E74-4360-BAC6-BFC1FADAA010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BCE87E-01EA-4D65-B3EB-19EE70B0E71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cadastro" sheetId="1" r:id="rId1"/>
     <sheet name="Turma 1 (fechada)" sheetId="2" r:id="rId2"/>
     <sheet name="Turma 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Tuma3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>Alunos</t>
   </si>
@@ -1009,8 +1010,8 @@
   </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1096,7 @@
       </c>
       <c r="L2">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1130,7 +1131,7 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L7" ca="1" si="0">RANDBETWEEN(0,10)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1157,7 +1158,7 @@
       <c r="K4" s="6"/>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1234,7 +1235,7 @@
       <c r="K7" s="6"/>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1249,7 +1250,9 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1305,4 +1308,213 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06C980E-A092-44C1-911E-1AC1D2D6AB34}">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="30" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="5">
+        <v>182</v>
+      </c>
+      <c r="L2">
+        <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="5">
+        <v>182</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L7" ca="1" si="0">RANDBETWEEN(0,10)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/database/infodados.xlsx
+++ b/database/infodados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Cadastro"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="97">
   <si>
     <t>Ciclo</t>
   </si>
@@ -170,9 +170,6 @@
   </si>
   <si>
     <t>10/11/2001</t>
-  </si>
-  <si>
-    <t>Inicio do Curso</t>
   </si>
   <si>
     <t>isaque da silva ribeiro motta</t>
@@ -728,22 +725,22 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
@@ -757,13 +754,13 @@
         <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
@@ -774,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>23</v>
@@ -794,16 +791,16 @@
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
@@ -817,13 +814,13 @@
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
@@ -834,16 +831,16 @@
         <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
@@ -857,13 +854,13 @@
         <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
@@ -877,13 +874,13 @@
         <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
@@ -897,13 +894,13 @@
         <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
@@ -917,13 +914,13 @@
         <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
@@ -934,16 +931,16 @@
         <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
@@ -954,76 +951,76 @@
         <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1264,7 +1261,7 @@
   </sheetPr>
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1304,7 +1301,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>15</v>
@@ -1330,16 +1327,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>20</v>
@@ -1818,7 +1815,7 @@
   </sheetPr>
   <dimension ref="A1:P200"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/database/infodados.xlsx
+++ b/database/infodados.xlsx
@@ -9,6 +9,8 @@
     <sheet name="Cadastro" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Turma 1 (fechada)" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Turma 2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Notas" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Pesos" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -18,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -38,6 +40,10 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -62,7 +68,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -78,6 +84,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1229,7 +1238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
@@ -1238,6 +1247,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="8"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1271,14 +1285,29 @@
           <t>Grupos</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Inicio do Curso</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>Início do Curso</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>Fim do Curso</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>Início do Ciclo</t>
+        </is>
+      </c>
+      <c r="J1" s="6" t="inlineStr">
+        <is>
+          <t>Término do Ciclo</t>
+        </is>
+      </c>
+      <c r="K1" s="6" t="inlineStr">
+        <is>
+          <t>Dias do Ciclo</t>
         </is>
       </c>
     </row>
@@ -1307,6 +1336,171 @@
         <is>
           <t>123456789-14</t>
         </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>01/01/2000</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>01/01/2001</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>01/01/2000</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>01/02/2000</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>20/04/2000</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>05/06/2000</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>05/03/2001</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>16/05/2001</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>17/05/2001</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>28/07/2001</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>29/07/2001</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>09/10/2001</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Aluno</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Ciclo 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>isaque da silva ribeiro motta</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Ciclo</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Peso</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ciclo 1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
